--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.1541</v>
+        <v>-10.9086</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.28350000000002</v>
+        <v>-21.46100000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.1465</v>
+        <v>-14.49230000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.598599999999994</v>
+        <v>-8.720499999999992</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.9398</v>
+        <v>12.1538</v>
       </c>
     </row>
     <row r="8">
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.240000000000002</v>
+        <v>-8.687400000000002</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,10 +624,10 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.503500000000004</v>
+        <v>-8.182600000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>12.83399999999999</v>
+        <v>13.4199</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.4695</v>
+        <v>-20.61979999999999</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.4408</v>
+        <v>-20.43189999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.81309999999999</v>
+        <v>-11.49889999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.586100000000004</v>
+        <v>-8.582100000000002</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.2612</v>
+        <v>13.26859999999999</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.1244</v>
+        <v>-21.48160000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.92830000000001</v>
+        <v>-7.493100000000007</v>
       </c>
       <c r="E21" t="n">
-        <v>13.22630000000001</v>
+        <v>13.30600000000001</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.27290000000003</v>
+        <v>-21.37300000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.51740000000003</v>
+        <v>-22.49320000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
